--- a/ocms/src/test/resources/TestData/OCMAudioVideoReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAudioVideoReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8040" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18375" windowHeight="8040" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="AdvanceSearch" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet3" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" calcMode="manual"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1:O24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -833,13 +833,14 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" customWidth="1"/>
   </cols>
